--- a/Excels/SuiteA1.xlsx
+++ b/Excels/SuiteA1.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Keywords" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="254">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -815,252 +814,6 @@
   <si>
     <t xml:space="preserve">Validate Txt input file data with uploaded data </t>
   </si>
-  <si>
-    <t xml:space="preserve">InboundTest66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest138</t>
-  </si>
 </sst>
 </file>
 
@@ -1069,7 +822,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1159,12 +912,6 @@
       <name val="Consolas"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1288,7 +1035,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,10 +1136,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,7 +1219,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
@@ -1538,13 +1281,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
@@ -1841,100 +1584,48 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="M10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="Test@123"/>
@@ -1957,11 +1648,11 @@
   </sheetPr>
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.87"/>
@@ -6567,7 +6258,7 @@
       <c r="B305" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C305" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D305" s="18"/>
@@ -6580,7 +6271,7 @@
       <c r="B306" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="C306" s="17" t="s">
         <v>215</v>
       </c>
       <c r="D306" s="18"/>
@@ -6595,4715 +6286,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E311"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="16"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="16"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E84" s="20"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" s="16"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="16"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" s="16"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" s="16"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="16"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="16"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="16"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E100" s="16"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="16"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="16"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104" s="16"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="16"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="16"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" s="16"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E108" s="16"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" s="16"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E110" s="16"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="16"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E114" s="20"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="16"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E124" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="16"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="16"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E128" s="20"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E129" s="16"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="16"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E132" s="20"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="16"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="16"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="20"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E136" s="20"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" s="16"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E138" s="20"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E140" s="20"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E141" s="20"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E142" s="20"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E143" s="16"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E144" s="16"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E145" s="16"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E146" s="16"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="16"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E149" s="16"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" s="16"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" s="16"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E152" s="16"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" s="16"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E154" s="16"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="16"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E156" s="16"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E157" s="16"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E158" s="16"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E159" s="16"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E160" s="16"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E161" s="16"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="16"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E163" s="16"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E164" s="16"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E165" s="16"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E166" s="16"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E167" s="16"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E168" s="16"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="16"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D170" s="18"/>
-      <c r="E170" s="16"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E171" s="16"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B172" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E172" s="24"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E173" s="16"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E174" s="20"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E175" s="20"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E176" s="16"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E177" s="20"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E178" s="20"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E179" s="20"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E180" s="20"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E181" s="20"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E182" s="16"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E183" s="16"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E184" s="16"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E186" s="16"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E187" s="16"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E188" s="16"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E189" s="16"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E190" s="16"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E191" s="16"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E192" s="16"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E193" s="16"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E194" s="16"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E195" s="16"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E196" s="16"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E197" s="16"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E198" s="16"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E199" s="16"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E200" s="16"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E201" s="16"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E202" s="16"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D203" s="18"/>
-      <c r="E203" s="16"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D204" s="18"/>
-      <c r="E204" s="16"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E205" s="16"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B206" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E206" s="24"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E207" s="16"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E208" s="20"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D209" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E209" s="20"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B210" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E210" s="16"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E211" s="20"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E212" s="20"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E213" s="20"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E214" s="20"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B215" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D215" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E215" s="20"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D216" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E216" s="16"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E217" s="16"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C218" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E218" s="16"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C219" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E220" s="16"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C221" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E221" s="16"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B222" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C222" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E222" s="16"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E223" s="16"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B224" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C224" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E224" s="16"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C225" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D225" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E225" s="16"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C226" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D226" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E226" s="16"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B227" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D227" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E227" s="16"/>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E228" s="16"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E229" s="16"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B230" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D230" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E230" s="16"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B231" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E231" s="16"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B232" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C232" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D232" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E232" s="16"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B233" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E233" s="16"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B234" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C234" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E234" s="16"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B235" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E235" s="16"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B236" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E236" s="16"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C237" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D237" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E237" s="16"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B238" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E238" s="24"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C239" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D239" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E239" s="16"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D240" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E240" s="20"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C241" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D241" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E241" s="20"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B242" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C242" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D242" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E242" s="16"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C243" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E243" s="20"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E244" s="20"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E245" s="20"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C246" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E246" s="20"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B247" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D247" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E247" s="20"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D248" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E248" s="16"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B249" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C249" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E249" s="16"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B250" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D250" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E250" s="16"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B251" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E251" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C252" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E252" s="16"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B253" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D253" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E253" s="16"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D254" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E254" s="16"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C255" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E255" s="16"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B256" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D256" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E256" s="16"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B257" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C257" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D257" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E257" s="16"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C258" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E258" s="16"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E259" s="16"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C260" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E260" s="16"/>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C261" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E261" s="16"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C262" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D262" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E262" s="16"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C263" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E263" s="16"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C264" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D264" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E264" s="16"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D265" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E265" s="16"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B266" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C266" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E266" s="16"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B267" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E267" s="16"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B268" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C268" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D268" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E268" s="16"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C269" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D269" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E269" s="16"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B270" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E270" s="24"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B271" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C271" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E271" s="16"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B272" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C272" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E272" s="20"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C273" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E273" s="20"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B274" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C274" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E274" s="16"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C275" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E275" s="20"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D276" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E276" s="20"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B277" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D277" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E277" s="20"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C278" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E278" s="20"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C279" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E279" s="20"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C280" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D280" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E280" s="16"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B281" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C281" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E281" s="16"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B282" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C282" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E282" s="16"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B283" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B284" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E284" s="16"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B285" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D285" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E285" s="16"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B286" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E286" s="16"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D287" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E287" s="16"/>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B288" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C288" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D288" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E288" s="16"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C289" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E289" s="16"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C290" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E290" s="16"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E291" s="16"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C292" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D292" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E292" s="16"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B293" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D293" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E293" s="16"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C294" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E294" s="16"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B295" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E295" s="16"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="B296" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C296" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E296" s="16"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E297" s="16"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="B298" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C298" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D298" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E298" s="16"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E299" s="16"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E300" s="16"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C301" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E301" s="16"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="E302" s="16"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D303" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E303" s="16"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="E304" s="16"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E305" s="16"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E306" s="16"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E307" s="16"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="E308" s="16"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E309" s="16"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B310" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E310" s="16"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C311" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D311" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E311" s="20"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Excels/SuiteA1.xlsx
+++ b/Excels/SuiteA1.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Keywords" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="337">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -571,6 +572,9 @@
   </si>
   <si>
     <t xml:space="preserve">trgPrimaryData_xpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tt</t>
   </si>
   <si>
     <t xml:space="preserve">InboundSuiteA_appname_xpath</t>
@@ -813,6 +817,252 @@
   </si>
   <si>
     <t xml:space="preserve">Validate Txt input file data with uploaded data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InboundTest138</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1648,8 +1898,8 @@
   </sheetPr>
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A304" activeCellId="0" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3266,7 +3516,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>68</v>
@@ -3281,7 +3531,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>54</v>
@@ -3296,7 +3546,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B108" s="19" t="s">
         <v>68</v>
@@ -3311,7 +3561,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>74</v>
@@ -3326,7 +3576,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>77</v>
@@ -3341,7 +3591,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>79</v>
@@ -3358,7 +3608,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>81</v>
@@ -3373,7 +3623,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>83</v>
@@ -3390,7 +3640,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>68</v>
@@ -3405,7 +3655,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>54</v>
@@ -3420,7 +3670,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>85</v>
@@ -3435,7 +3685,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>68</v>
@@ -3450,7 +3700,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>54</v>
@@ -3465,7 +3715,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>87</v>
@@ -3480,7 +3730,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>90</v>
@@ -3495,7 +3745,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>68</v>
@@ -3510,7 +3760,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>54</v>
@@ -3525,7 +3775,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>94</v>
@@ -3540,7 +3790,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>96</v>
@@ -3557,7 +3807,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>68</v>
@@ -3572,7 +3822,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>54</v>
@@ -3587,7 +3837,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>97</v>
@@ -3596,7 +3846,7 @@
         <v>98</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>13</v>
@@ -3604,7 +3854,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B128" s="16" t="s">
         <v>100</v>
@@ -3613,13 +3863,13 @@
         <v>91</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>68</v>
@@ -3634,7 +3884,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>54</v>
@@ -3649,7 +3899,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>102</v>
@@ -3664,7 +3914,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>105</v>
@@ -3679,7 +3929,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>68</v>
@@ -3694,7 +3944,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>54</v>
@@ -3709,7 +3959,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>108</v>
@@ -3724,7 +3974,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>111</v>
@@ -3739,7 +3989,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>54</v>
@@ -3754,7 +4004,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>114</v>
@@ -3769,7 +4019,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>116</v>
@@ -3778,28 +4028,28 @@
         <v>117</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>121</v>
@@ -3814,7 +4064,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>123</v>
@@ -3829,7 +4079,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>68</v>
@@ -3844,7 +4094,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>68</v>
@@ -3859,7 +4109,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>126</v>
@@ -3868,13 +4118,13 @@
         <v>127</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E145" s="16"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>54</v>
@@ -3889,16 +4139,16 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>33</v>
@@ -3906,7 +4156,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>133</v>
@@ -3921,7 +4171,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>54</v>
@@ -3936,7 +4186,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>136</v>
@@ -3951,7 +4201,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>139</v>
@@ -3966,7 +4216,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>54</v>
@@ -3981,7 +4231,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>141</v>
@@ -3996,7 +4246,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>54</v>
@@ -4011,10 +4261,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>145</v>
@@ -4026,7 +4276,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>147</v>
@@ -4041,7 +4291,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>139</v>
@@ -4050,13 +4300,13 @@
         <v>71</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E157" s="16"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>54</v>
@@ -4071,22 +4321,22 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E159" s="16"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>54</v>
@@ -4101,22 +4351,22 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E161" s="16"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>54</v>
@@ -4131,123 +4381,123 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E163" s="16"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E165" s="16"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E166" s="16"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C167" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E167" s="16"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E168" s="16"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="16"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="16"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>68</v>
@@ -4262,22 +4512,22 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C172" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E172" s="24"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>54</v>
@@ -4292,7 +4542,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>108</v>
@@ -4307,7 +4557,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -4322,7 +4572,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>54</v>
@@ -4337,7 +4587,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>114</v>
@@ -4352,7 +4602,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>116</v>
@@ -4361,28 +4611,28 @@
         <v>117</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E178" s="20"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E179" s="20"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>121</v>
@@ -4397,7 +4647,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>123</v>
@@ -4412,7 +4662,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>68</v>
@@ -4427,7 +4677,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>126</v>
@@ -4436,13 +4686,13 @@
         <v>127</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E183" s="16"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>54</v>
@@ -4457,16 +4707,16 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>34</v>
@@ -4474,7 +4724,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>133</v>
@@ -4489,7 +4739,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>54</v>
@@ -4504,7 +4754,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>136</v>
@@ -4519,7 +4769,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>139</v>
@@ -4534,7 +4784,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>54</v>
@@ -4549,7 +4799,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>141</v>
@@ -4564,7 +4814,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>54</v>
@@ -4579,10 +4829,10 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="17" t="s">
         <v>145</v>
@@ -4594,7 +4844,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>147</v>
@@ -4609,7 +4859,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>139</v>
@@ -4618,13 +4868,13 @@
         <v>71</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E195" s="16"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>54</v>
@@ -4639,22 +4889,22 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E197" s="16"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>54</v>
@@ -4669,22 +4919,22 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E199" s="16"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>54</v>
@@ -4699,63 +4949,63 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E201" s="16"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E202" s="16"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="16"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D204" s="18"/>
       <c r="E204" s="16"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>68</v>
@@ -4770,22 +5020,22 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E206" s="24"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>54</v>
@@ -4800,7 +5050,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>108</v>
@@ -4815,7 +5065,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>111</v>
@@ -4830,7 +5080,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>54</v>
@@ -4845,7 +5095,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>114</v>
@@ -4860,7 +5110,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B212" s="16" t="s">
         <v>116</v>
@@ -4869,28 +5119,28 @@
         <v>117</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E212" s="20"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C213" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E213" s="20"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>121</v>
@@ -4905,7 +5155,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>123</v>
@@ -4920,7 +5170,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>68</v>
@@ -4935,7 +5185,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>126</v>
@@ -4944,13 +5194,13 @@
         <v>127</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E217" s="16"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>54</v>
@@ -4965,16 +5215,16 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C219" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>35</v>
@@ -4982,7 +5232,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>133</v>
@@ -4997,7 +5247,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>54</v>
@@ -5012,7 +5262,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>136</v>
@@ -5027,7 +5277,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>139</v>
@@ -5042,7 +5292,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>54</v>
@@ -5057,7 +5307,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>141</v>
@@ -5072,7 +5322,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>54</v>
@@ -5087,10 +5337,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>145</v>
@@ -5102,7 +5352,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>147</v>
@@ -5117,7 +5367,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>139</v>
@@ -5126,13 +5376,13 @@
         <v>71</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E229" s="16"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>54</v>
@@ -5147,22 +5397,22 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E231" s="16"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B232" s="19" t="s">
         <v>54</v>
@@ -5177,22 +5427,22 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C233" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E233" s="16"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>54</v>
@@ -5207,63 +5457,63 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E235" s="16"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E236" s="16"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="16"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D238" s="18"/>
       <c r="E238" s="16"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>68</v>
@@ -5278,22 +5528,22 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C240" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E240" s="24"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>54</v>
@@ -5308,7 +5558,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>108</v>
@@ -5323,7 +5573,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B243" s="16" t="s">
         <v>111</v>
@@ -5338,7 +5588,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>54</v>
@@ -5353,7 +5603,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B245" s="16" t="s">
         <v>114</v>
@@ -5368,7 +5618,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B246" s="16" t="s">
         <v>116</v>
@@ -5377,28 +5627,28 @@
         <v>117</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E246" s="20"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C247" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E247" s="20"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B248" s="16" t="s">
         <v>121</v>
@@ -5413,7 +5663,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>123</v>
@@ -5428,7 +5678,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>68</v>
@@ -5443,7 +5693,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>126</v>
@@ -5452,13 +5702,13 @@
         <v>127</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E251" s="16"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>54</v>
@@ -5473,16 +5723,16 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C253" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>36</v>
@@ -5490,7 +5740,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>133</v>
@@ -5505,7 +5755,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>54</v>
@@ -5520,7 +5770,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>136</v>
@@ -5535,7 +5785,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>139</v>
@@ -5550,7 +5800,7 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>54</v>
@@ -5565,7 +5815,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>141</v>
@@ -5580,7 +5830,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>54</v>
@@ -5595,10 +5845,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>145</v>
@@ -5610,7 +5860,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>147</v>
@@ -5625,7 +5875,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>139</v>
@@ -5634,13 +5884,13 @@
         <v>71</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E263" s="16"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B264" s="19" t="s">
         <v>54</v>
@@ -5655,22 +5905,22 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B266" s="19" t="s">
         <v>54</v>
@@ -5685,22 +5935,22 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C267" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E267" s="16"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>54</v>
@@ -5715,63 +5965,63 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E269" s="16"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E270" s="16"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D271" s="18"/>
       <c r="E271" s="16"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D272" s="18"/>
       <c r="E272" s="16"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B273" s="19" t="s">
         <v>68</v>
@@ -5786,22 +6036,22 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C274" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E274" s="24"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B275" s="19" t="s">
         <v>54</v>
@@ -5816,7 +6066,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>108</v>
@@ -5831,7 +6081,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B277" s="16" t="s">
         <v>111</v>
@@ -5846,7 +6096,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B278" s="19" t="s">
         <v>54</v>
@@ -5861,7 +6111,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B279" s="16" t="s">
         <v>114</v>
@@ -5876,7 +6126,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B280" s="16" t="s">
         <v>116</v>
@@ -5885,28 +6135,28 @@
         <v>117</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E280" s="20"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C281" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E281" s="20"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B282" s="16" t="s">
         <v>121</v>
@@ -5921,7 +6171,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B283" s="19" t="s">
         <v>123</v>
@@ -5936,7 +6186,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>68</v>
@@ -5951,7 +6201,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B285" s="19" t="s">
         <v>126</v>
@@ -5960,13 +6210,13 @@
         <v>127</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E285" s="16"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>54</v>
@@ -5981,16 +6231,16 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C287" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>37</v>
@@ -5998,7 +6248,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>133</v>
@@ -6013,7 +6263,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>54</v>
@@ -6028,7 +6278,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>136</v>
@@ -6043,7 +6293,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B291" s="16" t="s">
         <v>139</v>
@@ -6058,7 +6308,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>54</v>
@@ -6073,7 +6323,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>141</v>
@@ -6088,7 +6338,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B294" s="19" t="s">
         <v>54</v>
@@ -6103,10 +6353,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C295" s="17" t="s">
         <v>145</v>
@@ -6118,7 +6368,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>147</v>
@@ -6133,7 +6383,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B297" s="19" t="s">
         <v>139</v>
@@ -6142,13 +6392,13 @@
         <v>71</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E297" s="16"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>54</v>
@@ -6163,22 +6413,22 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E299" s="16"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B300" s="19" t="s">
         <v>54</v>
@@ -6193,22 +6443,22 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C301" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E301" s="16"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>54</v>
@@ -6223,56 +6473,56 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E303" s="16"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E304" s="16"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D305" s="18"/>
       <c r="E305" s="16"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="17" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D306" s="18"/>
       <c r="E306" s="16"/>
@@ -6286,4 +6536,4715 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E311"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" s="16"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="16"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="16"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="16"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="16"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="16"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E110" s="16"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="16"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="20"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" s="20"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="20"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" s="20"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="20"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" s="20"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="20"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" s="20"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E123" s="16"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="16"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128" s="20"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" s="20"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" s="20"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="16"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="16"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="20"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="20"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E138" s="20"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" s="20"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="20"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="20"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="20"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="16"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="16"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="16"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" s="16"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="16"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E149" s="16"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="16"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="16"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="16"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" s="16"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E154" s="16"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="16"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="16"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E157" s="16"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" s="16"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" s="16"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="16"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" s="16"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" s="16"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E164" s="16"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E165" s="16"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" s="16"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E167" s="16"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E168" s="16"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D169" s="18"/>
+      <c r="E169" s="16"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" s="18"/>
+      <c r="E170" s="16"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E171" s="16"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E172" s="24"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E173" s="16"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E174" s="20"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E175" s="20"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E177" s="20"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E178" s="20"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E179" s="20"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E180" s="20"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E181" s="20"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E182" s="16"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E183" s="16"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E184" s="16"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" s="16"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E187" s="16"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E188" s="16"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E189" s="16"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E190" s="16"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E191" s="16"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E192" s="16"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E193" s="16"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E194" s="16"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E195" s="16"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E196" s="16"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E197" s="16"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E198" s="16"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E199" s="16"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E200" s="16"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E201" s="16"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E202" s="16"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D203" s="18"/>
+      <c r="E203" s="16"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D204" s="18"/>
+      <c r="E204" s="16"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E205" s="16"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E206" s="24"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E207" s="16"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E208" s="20"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E209" s="20"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" s="16"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E211" s="20"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" s="20"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E213" s="20"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E214" s="20"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E215" s="20"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E216" s="16"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E217" s="16"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E218" s="16"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E220" s="16"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E221" s="16"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" s="16"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E223" s="16"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E224" s="16"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E225" s="16"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E226" s="16"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E227" s="16"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E228" s="16"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" s="16"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E230" s="16"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E231" s="16"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E232" s="16"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E233" s="16"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E234" s="16"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E235" s="16"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E236" s="16"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E237" s="16"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B238" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C238" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E238" s="24"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E239" s="16"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E240" s="20"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E241" s="20"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" s="16"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E243" s="20"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E244" s="20"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E245" s="20"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E246" s="20"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E247" s="20"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E248" s="16"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E249" s="16"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E250" s="16"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E251" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E252" s="16"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E253" s="16"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E254" s="16"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E255" s="16"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E256" s="16"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E257" s="16"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E258" s="16"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E259" s="16"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E260" s="16"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E261" s="16"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E262" s="16"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E263" s="16"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E264" s="16"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E265" s="16"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C266" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E266" s="16"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E267" s="16"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E268" s="16"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E269" s="16"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B270" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E270" s="24"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E271" s="16"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E272" s="20"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E273" s="20"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E274" s="16"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C275" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E275" s="20"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E276" s="20"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E277" s="20"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E278" s="20"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E279" s="20"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E280" s="16"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E281" s="16"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E282" s="16"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E284" s="16"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E285" s="16"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E286" s="16"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D287" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E287" s="16"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E288" s="16"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E289" s="16"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E290" s="16"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E291" s="16"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E292" s="16"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E293" s="16"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E294" s="16"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E295" s="16"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E296" s="16"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E297" s="16"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E298" s="16"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E299" s="16"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E300" s="16"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C301" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E301" s="16"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B302" s="19"/>
+      <c r="C302" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E302" s="16"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E303" s="16"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E304" s="16"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E305" s="16"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E306" s="16"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E307" s="16"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E308" s="16"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E309" s="16"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C310" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E310" s="16"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D311" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E311" s="20"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Excels/SuiteA1.xlsx
+++ b/Excels/SuiteA1.xlsx
@@ -11,7 +11,6 @@
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Keywords" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="254">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -572,9 +571,6 @@
   </si>
   <si>
     <t xml:space="preserve">trgPrimaryData_xpath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tt</t>
   </si>
   <si>
     <t xml:space="preserve">InboundSuiteA_appname_xpath</t>
@@ -817,252 +813,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validate Txt input file data with uploaded data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InboundTest138</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1219,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
@@ -1537,7 +1287,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
@@ -1898,11 +1648,11 @@
   </sheetPr>
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A304" activeCellId="0" sqref="A304"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C306" activeCellId="0" sqref="C306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.87"/>
@@ -3516,7 +3266,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>68</v>
@@ -3531,7 +3281,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>54</v>
@@ -3546,7 +3296,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B108" s="19" t="s">
         <v>68</v>
@@ -3561,7 +3311,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>74</v>
@@ -3576,7 +3326,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>77</v>
@@ -3591,7 +3341,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>79</v>
@@ -3608,7 +3358,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>81</v>
@@ -3623,7 +3373,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>83</v>
@@ -3640,7 +3390,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>68</v>
@@ -3655,7 +3405,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>54</v>
@@ -3670,7 +3420,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>85</v>
@@ -3685,7 +3435,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>68</v>
@@ -3700,7 +3450,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>54</v>
@@ -3715,7 +3465,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>87</v>
@@ -3730,7 +3480,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>90</v>
@@ -3745,7 +3495,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>68</v>
@@ -3760,7 +3510,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>54</v>
@@ -3775,7 +3525,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>94</v>
@@ -3790,7 +3540,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>96</v>
@@ -3807,7 +3557,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>68</v>
@@ -3822,7 +3572,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>54</v>
@@ -3837,7 +3587,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>97</v>
@@ -3846,7 +3596,7 @@
         <v>98</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>13</v>
@@ -3854,7 +3604,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B128" s="16" t="s">
         <v>100</v>
@@ -3863,13 +3613,13 @@
         <v>91</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>68</v>
@@ -3884,7 +3634,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>54</v>
@@ -3899,7 +3649,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>102</v>
@@ -3914,7 +3664,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>105</v>
@@ -3929,7 +3679,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>68</v>
@@ -3944,7 +3694,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>54</v>
@@ -3959,7 +3709,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>108</v>
@@ -3974,7 +3724,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>111</v>
@@ -3989,7 +3739,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>54</v>
@@ -4004,7 +3754,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>114</v>
@@ -4019,7 +3769,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>116</v>
@@ -4028,28 +3778,28 @@
         <v>117</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>121</v>
@@ -4064,7 +3814,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>123</v>
@@ -4079,7 +3829,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>68</v>
@@ -4094,7 +3844,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>68</v>
@@ -4109,7 +3859,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>126</v>
@@ -4118,13 +3868,13 @@
         <v>127</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E145" s="16"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>54</v>
@@ -4139,16 +3889,16 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>33</v>
@@ -4156,7 +3906,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>133</v>
@@ -4171,7 +3921,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>54</v>
@@ -4186,7 +3936,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>136</v>
@@ -4201,7 +3951,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>139</v>
@@ -4216,7 +3966,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>54</v>
@@ -4231,7 +3981,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>141</v>
@@ -4246,7 +3996,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>54</v>
@@ -4261,10 +4011,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>145</v>
@@ -4276,7 +4026,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>147</v>
@@ -4291,7 +4041,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>139</v>
@@ -4300,13 +4050,13 @@
         <v>71</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157" s="16"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>54</v>
@@ -4321,22 +4071,22 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B159" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="D159" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="E159" s="16"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>54</v>
@@ -4351,22 +4101,22 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E161" s="16"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>54</v>
@@ -4381,123 +4131,123 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B163" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="D163" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E163" s="16"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B165" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="E165" s="16"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E166" s="16"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C167" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E167" s="16"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B168" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="D168" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E168" s="16"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B169" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="16"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B170" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="16"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>68</v>
@@ -4512,22 +4262,22 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E172" s="24"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>54</v>
@@ -4542,7 +4292,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>108</v>
@@ -4557,7 +4307,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>111</v>
@@ -4572,7 +4322,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>54</v>
@@ -4587,7 +4337,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>114</v>
@@ -4602,7 +4352,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>116</v>
@@ -4611,28 +4361,28 @@
         <v>117</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E178" s="20"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E179" s="20"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>121</v>
@@ -4647,7 +4397,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>123</v>
@@ -4662,7 +4412,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>68</v>
@@ -4677,7 +4427,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>126</v>
@@ -4686,13 +4436,13 @@
         <v>127</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E183" s="16"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>54</v>
@@ -4707,16 +4457,16 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>34</v>
@@ -4724,7 +4474,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>133</v>
@@ -4739,7 +4489,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>54</v>
@@ -4754,7 +4504,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>136</v>
@@ -4769,7 +4519,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>139</v>
@@ -4784,7 +4534,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>54</v>
@@ -4799,7 +4549,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>141</v>
@@ -4814,7 +4564,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>54</v>
@@ -4829,10 +4579,10 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C193" s="17" t="s">
         <v>145</v>
@@ -4844,7 +4594,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>147</v>
@@ -4859,7 +4609,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>139</v>
@@ -4868,13 +4618,13 @@
         <v>71</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E195" s="16"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>54</v>
@@ -4889,22 +4639,22 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B197" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="D197" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="E197" s="16"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>54</v>
@@ -4919,22 +4669,22 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E199" s="16"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>54</v>
@@ -4949,63 +4699,63 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B201" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="D201" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E201" s="16"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="D202" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E202" s="16"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B203" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="16"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D204" s="18"/>
       <c r="E204" s="16"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>68</v>
@@ -5020,22 +4770,22 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E206" s="24"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>54</v>
@@ -5050,7 +4800,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>108</v>
@@ -5065,7 +4815,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>111</v>
@@ -5080,7 +4830,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>54</v>
@@ -5095,7 +4845,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>114</v>
@@ -5110,7 +4860,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B212" s="16" t="s">
         <v>116</v>
@@ -5119,28 +4869,28 @@
         <v>117</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E212" s="20"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C213" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E213" s="20"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>121</v>
@@ -5155,7 +4905,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>123</v>
@@ -5170,7 +4920,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>68</v>
@@ -5185,7 +4935,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>126</v>
@@ -5194,13 +4944,13 @@
         <v>127</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E217" s="16"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>54</v>
@@ -5215,16 +4965,16 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C219" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>35</v>
@@ -5232,7 +4982,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>133</v>
@@ -5247,7 +4997,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>54</v>
@@ -5262,7 +5012,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>136</v>
@@ -5277,7 +5027,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>139</v>
@@ -5292,7 +5042,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>54</v>
@@ -5307,7 +5057,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>141</v>
@@ -5322,7 +5072,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>54</v>
@@ -5337,10 +5087,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>145</v>
@@ -5352,7 +5102,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>147</v>
@@ -5367,7 +5117,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>139</v>
@@ -5376,13 +5126,13 @@
         <v>71</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E229" s="16"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>54</v>
@@ -5397,22 +5147,22 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B231" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C231" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="D231" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="E231" s="16"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B232" s="19" t="s">
         <v>54</v>
@@ -5427,22 +5177,22 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C233" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E233" s="16"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>54</v>
@@ -5457,63 +5207,63 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B235" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C235" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="D235" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E235" s="16"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B236" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C236" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="D236" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E236" s="16"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B237" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C237" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="16"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D238" s="18"/>
       <c r="E238" s="16"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>68</v>
@@ -5528,22 +5278,22 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C240" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E240" s="24"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>54</v>
@@ -5558,7 +5308,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>108</v>
@@ -5573,7 +5323,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B243" s="16" t="s">
         <v>111</v>
@@ -5588,7 +5338,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>54</v>
@@ -5603,7 +5353,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B245" s="16" t="s">
         <v>114</v>
@@ -5618,7 +5368,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B246" s="16" t="s">
         <v>116</v>
@@ -5627,28 +5377,28 @@
         <v>117</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E246" s="20"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C247" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E247" s="20"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B248" s="16" t="s">
         <v>121</v>
@@ -5663,7 +5413,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>123</v>
@@ -5678,7 +5428,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>68</v>
@@ -5693,7 +5443,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>126</v>
@@ -5702,13 +5452,13 @@
         <v>127</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E251" s="16"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>54</v>
@@ -5723,16 +5473,16 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C253" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>36</v>
@@ -5740,7 +5490,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>133</v>
@@ -5755,7 +5505,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>54</v>
@@ -5770,7 +5520,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>136</v>
@@ -5785,7 +5535,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>139</v>
@@ -5800,7 +5550,7 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>54</v>
@@ -5815,7 +5565,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>141</v>
@@ -5830,7 +5580,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>54</v>
@@ -5845,10 +5595,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>145</v>
@@ -5860,7 +5610,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>147</v>
@@ -5875,7 +5625,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>139</v>
@@ -5884,13 +5634,13 @@
         <v>71</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E263" s="16"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B264" s="19" t="s">
         <v>54</v>
@@ -5905,22 +5655,22 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B265" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C265" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="D265" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="D265" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="E265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B266" s="19" t="s">
         <v>54</v>
@@ -5935,22 +5685,22 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C267" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E267" s="16"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>54</v>
@@ -5965,63 +5715,63 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B269" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C269" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="D269" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D269" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E269" s="16"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B270" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C270" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="D270" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E270" s="16"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B271" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C271" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C271" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="D271" s="18"/>
       <c r="E271" s="16"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D272" s="18"/>
       <c r="E272" s="16"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B273" s="19" t="s">
         <v>68</v>
@@ -6036,22 +5786,22 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C274" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E274" s="24"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B275" s="19" t="s">
         <v>54</v>
@@ -6066,7 +5816,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>108</v>
@@ -6081,7 +5831,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B277" s="16" t="s">
         <v>111</v>
@@ -6096,7 +5846,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B278" s="19" t="s">
         <v>54</v>
@@ -6111,7 +5861,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B279" s="16" t="s">
         <v>114</v>
@@ -6126,7 +5876,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B280" s="16" t="s">
         <v>116</v>
@@ -6135,28 +5885,28 @@
         <v>117</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E280" s="20"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C281" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E281" s="20"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B282" s="16" t="s">
         <v>121</v>
@@ -6171,7 +5921,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B283" s="19" t="s">
         <v>123</v>
@@ -6186,7 +5936,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>68</v>
@@ -6201,7 +5951,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B285" s="19" t="s">
         <v>126</v>
@@ -6210,13 +5960,13 @@
         <v>127</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E285" s="16"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>54</v>
@@ -6231,16 +5981,16 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C287" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>37</v>
@@ -6248,7 +5998,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>133</v>
@@ -6263,7 +6013,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>54</v>
@@ -6278,7 +6028,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>136</v>
@@ -6293,7 +6043,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B291" s="16" t="s">
         <v>139</v>
@@ -6308,7 +6058,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>54</v>
@@ -6323,7 +6073,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>141</v>
@@ -6338,7 +6088,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B294" s="19" t="s">
         <v>54</v>
@@ -6353,10 +6103,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C295" s="17" t="s">
         <v>145</v>
@@ -6368,7 +6118,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>147</v>
@@ -6383,7 +6133,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B297" s="19" t="s">
         <v>139</v>
@@ -6392,13 +6142,13 @@
         <v>71</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E297" s="16"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>54</v>
@@ -6413,22 +6163,22 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B299" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C299" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="D299" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="D299" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="E299" s="16"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B300" s="19" t="s">
         <v>54</v>
@@ -6443,22 +6193,22 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C301" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E301" s="16"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>54</v>
@@ -6473,56 +6223,56 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B303" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C303" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C303" s="17" t="s">
+      <c r="D303" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="E303" s="16"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B304" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="D304" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="E304" s="16"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B305" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C305" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="C305" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="D305" s="18"/>
       <c r="E305" s="16"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="17" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D306" s="18"/>
       <c r="E306" s="16"/>
@@ -6536,4715 +6286,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E311"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="16"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="16"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E84" s="20"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" s="16"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="16"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E92" s="16"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" s="16"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="16"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="16"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="16"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E100" s="16"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="16"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="16"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104" s="16"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="16"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="16"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" s="16"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E108" s="16"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" s="16"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E110" s="16"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="16"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E114" s="20"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="16"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E124" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="16"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="16"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E128" s="20"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E129" s="16"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="16"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E132" s="20"/>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="16"/>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="16"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="20"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E136" s="20"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" s="16"/>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E138" s="20"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E140" s="20"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E141" s="20"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E142" s="20"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E143" s="16"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E144" s="16"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" s="16"/>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E146" s="16"/>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E148" s="16"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E149" s="16"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" s="16"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" s="16"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E152" s="16"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" s="16"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E154" s="16"/>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="16"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E156" s="16"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E157" s="16"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E158" s="16"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E159" s="16"/>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E160" s="16"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E161" s="16"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="16"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E163" s="16"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E164" s="16"/>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E165" s="16"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E166" s="16"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E167" s="16"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E168" s="16"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="16"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D170" s="18"/>
-      <c r="E170" s="16"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E171" s="16"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B172" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E172" s="24"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E173" s="16"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E174" s="20"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E175" s="20"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E176" s="16"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E177" s="20"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E178" s="20"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E179" s="20"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E180" s="20"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E181" s="20"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E182" s="16"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E183" s="16"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E184" s="16"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E186" s="16"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E187" s="16"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C188" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D188" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E188" s="16"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E189" s="16"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E190" s="16"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E191" s="16"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E192" s="16"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E193" s="16"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E194" s="16"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E195" s="16"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E196" s="16"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E197" s="16"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E198" s="16"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E199" s="16"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E200" s="16"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E201" s="16"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E202" s="16"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D203" s="18"/>
-      <c r="E203" s="16"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D204" s="18"/>
-      <c r="E204" s="16"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E205" s="16"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B206" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E206" s="24"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E207" s="16"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E208" s="20"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D209" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E209" s="20"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B210" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C210" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E210" s="16"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E211" s="20"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E212" s="20"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E213" s="20"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E214" s="20"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B215" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D215" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E215" s="20"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D216" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E216" s="16"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E217" s="16"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C218" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E218" s="16"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C219" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E220" s="16"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C221" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E221" s="16"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B222" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C222" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E222" s="16"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E223" s="16"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B224" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C224" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E224" s="16"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C225" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D225" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E225" s="16"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C226" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D226" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E226" s="16"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B227" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D227" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E227" s="16"/>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E228" s="16"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E229" s="16"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B230" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D230" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E230" s="16"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B231" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E231" s="16"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B232" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C232" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D232" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E232" s="16"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B233" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E233" s="16"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B234" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C234" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E234" s="16"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B235" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D235" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E235" s="16"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B236" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E236" s="16"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C237" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D237" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E237" s="16"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B238" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E238" s="24"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C239" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D239" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E239" s="16"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B240" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D240" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E240" s="20"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C241" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D241" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E241" s="20"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B242" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C242" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D242" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E242" s="16"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C243" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E243" s="20"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D244" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E244" s="20"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D245" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E245" s="20"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C246" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E246" s="20"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B247" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D247" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E247" s="20"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C248" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D248" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E248" s="16"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B249" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C249" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D249" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E249" s="16"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="B250" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D250" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E250" s="16"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B251" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E251" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C252" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D252" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E252" s="16"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B253" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D253" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E253" s="16"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D254" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E254" s="16"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C255" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E255" s="16"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B256" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D256" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E256" s="16"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B257" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C257" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D257" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E257" s="16"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C258" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E258" s="16"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E259" s="16"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C260" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E260" s="16"/>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C261" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E261" s="16"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C262" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D262" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E262" s="16"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C263" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E263" s="16"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C264" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D264" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E264" s="16"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D265" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E265" s="16"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B266" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C266" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E266" s="16"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B267" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E267" s="16"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B268" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C268" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D268" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E268" s="16"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C269" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D269" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E269" s="16"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B270" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E270" s="24"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="B271" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C271" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E271" s="16"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B272" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C272" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E272" s="20"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C273" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E273" s="20"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B274" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C274" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E274" s="16"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C275" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E275" s="20"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D276" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E276" s="20"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B277" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C277" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D277" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E277" s="20"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C278" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E278" s="20"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C279" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E279" s="20"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C280" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D280" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E280" s="16"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B281" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C281" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E281" s="16"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B282" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C282" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E282" s="16"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B283" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B284" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D284" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E284" s="16"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B285" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D285" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E285" s="16"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="B286" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E286" s="16"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D287" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E287" s="16"/>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B288" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C288" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D288" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E288" s="16"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C289" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E289" s="16"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C290" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E290" s="16"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D291" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E291" s="16"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C292" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D292" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E292" s="16"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B293" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D293" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E293" s="16"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C294" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E294" s="16"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="B295" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E295" s="16"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B296" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C296" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E296" s="16"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E297" s="16"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B298" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C298" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D298" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E298" s="16"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E299" s="16"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E300" s="16"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C301" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E301" s="16"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="E302" s="16"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D303" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E303" s="16"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E304" s="16"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E305" s="16"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="E306" s="16"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="E307" s="16"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="E308" s="16"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E309" s="16"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="B310" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E310" s="16"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C311" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D311" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E311" s="20"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>